--- a/tables/table_20.xlsx
+++ b/tables/table_20.xlsx
@@ -14,33 +14,45 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>Year</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+  <si>
+    <t>Unnamed: 0</t>
+  </si>
+  <si>
+    <t>Unnamed: 1</t>
+  </si>
+  <si>
+    <t>Unnamed: 2</t>
+  </si>
+  <si>
+    <t>Unnamed: 3</t>
+  </si>
+  <si>
+    <t>Number of employees</t>
+  </si>
+  <si>
+    <t>Total participants</t>
+  </si>
+  <si>
+    <t>Total for company sports activities</t>
+  </si>
+  <si>
+    <t>Total for sickness/injury prevention courses</t>
+  </si>
+  <si>
+    <t>Average health rate for the year (%)</t>
   </si>
   <si>
     <t>2017</t>
   </si>
   <si>
-    <t>Total participants</t>
-  </si>
-  <si>
     <t>1,061</t>
   </si>
   <si>
-    <t>Total for company sports activities</t>
-  </si>
-  <si>
     <t>740</t>
   </si>
   <si>
-    <t>Total for sickness/injury prevention courses</t>
-  </si>
-  <si>
     <t>321</t>
-  </si>
-  <si>
-    <t>Average health rate for the year (%)</t>
   </si>
   <si>
     <t>96.5</t>
@@ -401,78 +413,94 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B2">
+        <v>2019</v>
+      </c>
+      <c r="C2">
+        <v>2018</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>784</v>
+      </c>
+      <c r="C3">
+        <v>991</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
+      <c r="B4">
+        <v>554</v>
+      </c>
+      <c r="C4">
+        <v>683</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>230</v>
+      </c>
+      <c r="C5">
+        <v>308</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1">
-        <v>2019</v>
-      </c>
-      <c r="B2">
-        <v>784</v>
-      </c>
-      <c r="C2">
-        <v>554</v>
-      </c>
-      <c r="D2">
-        <v>230</v>
-      </c>
-      <c r="E2">
+      <c r="B6">
         <v>95.3</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1">
-        <v>2018</v>
-      </c>
-      <c r="B3">
-        <v>991</v>
-      </c>
-      <c r="C3">
-        <v>683</v>
-      </c>
-      <c r="D3">
-        <v>308</v>
-      </c>
-      <c r="E3">
+      <c r="C6">
         <v>95.3</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" t="s">
-        <v>9</v>
+      <c r="D6" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
